--- a/biology/Zoologie/Belles_&_Rebelles/Belles_&_Rebelles.xlsx
+++ b/biology/Zoologie/Belles_&_Rebelles/Belles_&_Rebelles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Belles_%26_Rebelles</t>
+          <t>Belles_&amp;_Rebelles</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Belles &amp; Rebelles est une série documentaire réalisée par Laurent Frapat et écrite par Éric Gonzales et Marie Pilhan, diffusée à partir du 24 avril 2010 sur France 5. La première saison est commentée par Julie Depardieu. Virginie Bodin assure les commentaires de la deuxième saison, dont la diffusion débute le 25 août 2012[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Belles &amp; Rebelles est une série documentaire réalisée par Laurent Frapat et écrite par Éric Gonzales et Marie Pilhan, diffusée à partir du 24 avril 2010 sur France 5. La première saison est commentée par Julie Depardieu. Virginie Bodin assure les commentaires de la deuxième saison, dont la diffusion débute le 25 août 2012.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Belles_%26_Rebelles</t>
+          <t>Belles_&amp;_Rebelles</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette série documentaire suit la vie quotidienne des femelles de Savannah Lane, en Afrique de l'Est.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Belles_%26_Rebelles</t>
+          <t>Belles_&amp;_Rebelles</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Personnages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Laura, la lionne
 Victoria, la guéparde
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Belles_%26_Rebelles</t>
+          <t>Belles_&amp;_Rebelles</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Épisodes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Saison 1
 De l'art d'être libre
